--- a/输出.xlsx
+++ b/输出.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +518,22 @@
   </si>
   <si>
     <t>startTime_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question按html顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tests部分按html顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tests的正确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,6 +612,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -878,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -888,6 +907,7 @@
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="18" max="18" width="11.5" customWidth="1"/>
     <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="71" max="71" width="16.75" customWidth="1"/>
     <col min="72" max="72" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1314,12 +1334,61 @@
       <c r="O2" t="s">
         <v>126</v>
       </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
+      <c r="W2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
       <c r="BR2">
         <v>32</v>
       </c>
@@ -1385,6 +1454,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="W2:AJ2"/>
+    <mergeCell ref="AK2:AZ2"/>
+    <mergeCell ref="BB2:BQ2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/输出.xlsx
+++ b/输出.xlsx
@@ -493,18 +493,6 @@
     <t>RT_2_16</t>
   </si>
   <si>
-    <t>chooseTime_1(brush)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一类查看的比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chooseTime_2(shampoo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,19 +509,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>question按html顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tests部分按html顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tests的正确率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反应时</t>
+    <t>2019-01-12_22:25:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-12_22:22:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOVINO-δD</t>
+  </si>
+  <si>
+    <t>chooseTime_1(shampoo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTERNA-βD</t>
+  </si>
+  <si>
+    <t>14/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chooseTime_2(brush)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,9 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -897,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BT12" sqref="BT12"/>
+    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
+      <selection activeCell="DN2" sqref="DN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -907,6 +903,7 @@
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="18" max="18" width="11.5" customWidth="1"/>
     <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="70" max="70" width="12" customWidth="1"/>
     <col min="71" max="71" width="16.75" customWidth="1"/>
     <col min="72" max="72" width="14" customWidth="1"/>
   </cols>
@@ -916,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -952,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>14</v>
@@ -1120,7 +1117,7 @@
         <v>106</v>
       </c>
       <c r="BR1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="BS1" s="2" t="s">
         <v>19</v>
@@ -1288,16 +1285,22 @@
         <v>124</v>
       </c>
       <c r="DV1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="DW1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -1331,53 +1334,126 @@
       <c r="N2">
         <v>40</v>
       </c>
-      <c r="O2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="S2" t="s">
         <v>133</v>
       </c>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>8</v>
+      </c>
+      <c r="W2" s="7">
+        <v>3</v>
+      </c>
+      <c r="X2" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>1</v>
+      </c>
       <c r="BA2" t="s">
         <v>134</v>
       </c>
-      <c r="BB2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
+      <c r="BB2" s="7">
+        <v>1304</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>1642</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>4341</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>1743</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>1844</v>
+      </c>
       <c r="BG2" s="7"/>
       <c r="BH2" s="7"/>
       <c r="BI2" s="7"/>
@@ -1392,23 +1468,125 @@
       <c r="BR2">
         <v>32</v>
       </c>
+      <c r="BW2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX2">
+        <v>16</v>
+      </c>
+      <c r="BY2">
+        <v>7</v>
+      </c>
+      <c r="BZ2">
+        <v>7</v>
+      </c>
+      <c r="CA2">
+        <v>7</v>
+      </c>
+      <c r="CB2">
+        <v>7</v>
+      </c>
+      <c r="CC2">
+        <v>7</v>
+      </c>
+      <c r="CE2">
+        <v>4</v>
+      </c>
+      <c r="CF2">
+        <v>7</v>
+      </c>
+      <c r="CG2">
+        <v>7</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>7469</v>
+      </c>
+      <c r="DH2">
+        <v>1495</v>
+      </c>
+      <c r="DK2">
+        <v>1618</v>
+      </c>
+      <c r="DL2">
+        <v>2969</v>
+      </c>
+      <c r="DM2">
+        <v>1045</v>
+      </c>
     </row>
     <row r="3" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="M3">
         <v>2</v>
       </c>
@@ -1454,11 +1632,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="W2:AJ2"/>
-    <mergeCell ref="AK2:AZ2"/>
-    <mergeCell ref="BB2:BQ2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/输出.xlsx
+++ b/输出.xlsx
@@ -893,22 +893,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DG1" workbookViewId="0">
-      <selection activeCell="DN2" sqref="DN2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="20.73046875" customWidth="1"/>
+    <col min="3" max="3" width="26.73046875" customWidth="1"/>
     <col min="14" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="18" max="18" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="13.75" customWidth="1"/>
-    <col min="70" max="70" width="12" customWidth="1"/>
-    <col min="71" max="71" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="16.265625" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.73046875" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.19921875" customWidth="1"/>
+    <col min="34" max="34" width="13.86328125" customWidth="1"/>
+    <col min="35" max="35" width="18.796875" customWidth="1"/>
+    <col min="36" max="36" width="12.265625" customWidth="1"/>
+    <col min="70" max="70" width="22.59765625" customWidth="1"/>
+    <col min="71" max="71" width="16.73046875" customWidth="1"/>
     <col min="72" max="72" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="3" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1591,42 +1600,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:127" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>

--- a/输出.xlsx
+++ b/输出.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,21 @@
   <si>
     <t>chooseTime_2(brush)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-13_19:59:34</t>
+  </si>
+  <si>
+    <t>2019-01-13_20:00:50</t>
+  </si>
+  <si>
+    <t>miao</t>
+  </si>
+  <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>ALTERNA-αJ</t>
   </si>
 </sst>
 </file>
@@ -891,33 +906,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DW11"/>
+  <dimension ref="A1:EC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="DO1" workbookViewId="0">
+      <selection activeCell="DO12" sqref="DO12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
-    <col min="3" max="3" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="14" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="18" max="18" width="16.265625" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.73046875" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="13.19921875" customWidth="1"/>
-    <col min="34" max="34" width="13.86328125" customWidth="1"/>
-    <col min="35" max="35" width="18.796875" customWidth="1"/>
-    <col min="36" max="36" width="12.265625" customWidth="1"/>
-    <col min="70" max="70" width="22.59765625" customWidth="1"/>
-    <col min="71" max="71" width="16.73046875" customWidth="1"/>
+    <col min="18" max="18" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="16.375" customWidth="1"/>
+    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="21" max="21" width="14.375" customWidth="1"/>
+    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="27" max="27" width="13.25" customWidth="1"/>
+    <col min="34" max="34" width="13.875" customWidth="1"/>
+    <col min="35" max="35" width="18.75" customWidth="1"/>
+    <col min="36" max="36" width="12.25" customWidth="1"/>
+    <col min="70" max="70" width="22.625" customWidth="1"/>
+    <col min="71" max="71" width="16.75" customWidth="1"/>
     <col min="72" max="72" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="3" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1600,44 +1615,445 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:127" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:133" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>140</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>9</v>
+      </c>
+      <c r="V12">
+        <v>9</v>
+      </c>
+      <c r="W12">
+        <v>9</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>9</v>
+      </c>
+      <c r="Z12">
+        <v>9</v>
+      </c>
+      <c r="AA12">
+        <v>9</v>
+      </c>
+      <c r="AB12">
+        <v>7</v>
+      </c>
+      <c r="AC12">
+        <v>9</v>
+      </c>
+      <c r="AD12">
+        <v>9</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
+      </c>
+      <c r="AG12">
+        <v>4</v>
+      </c>
+      <c r="AH12">
+        <v>4</v>
+      </c>
+      <c r="AI12">
+        <v>4</v>
+      </c>
+      <c r="AJ12">
+        <v>4</v>
+      </c>
+      <c r="AK12">
+        <v>4</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0.5</v>
+      </c>
+      <c r="BE12">
+        <v>662</v>
+      </c>
+      <c r="BF12">
+        <v>1192</v>
+      </c>
+      <c r="BG12">
+        <v>718</v>
+      </c>
+      <c r="BH12">
+        <v>471</v>
+      </c>
+      <c r="BI12">
+        <v>5083</v>
+      </c>
+      <c r="BJ12">
+        <v>1201</v>
+      </c>
+      <c r="BK12">
+        <v>4206</v>
+      </c>
+      <c r="BL12">
+        <v>684</v>
+      </c>
+      <c r="BM12">
+        <v>336</v>
+      </c>
+      <c r="BN12">
+        <v>1021</v>
+      </c>
+      <c r="BO12">
+        <v>404</v>
+      </c>
+      <c r="BP12">
+        <v>976</v>
+      </c>
+      <c r="BQ12">
+        <v>831</v>
+      </c>
+      <c r="BR12">
+        <v>729</v>
+      </c>
+      <c r="BS12">
+        <v>729</v>
+      </c>
+      <c r="BT12">
+        <v>370</v>
+      </c>
+      <c r="BU12">
+        <v>359</v>
+      </c>
+      <c r="BV12">
+        <v>729</v>
+      </c>
+      <c r="BW12">
+        <v>4</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>1</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC12">
+        <v>16</v>
+      </c>
+      <c r="CD12">
+        <v>9</v>
+      </c>
+      <c r="CE12">
+        <v>9</v>
+      </c>
+      <c r="CF12">
+        <v>9</v>
+      </c>
+      <c r="CG12">
+        <v>9</v>
+      </c>
+      <c r="CH12">
+        <v>9</v>
+      </c>
+      <c r="CI12">
+        <v>9</v>
+      </c>
+      <c r="CJ12">
+        <v>9</v>
+      </c>
+      <c r="CK12">
+        <v>7</v>
+      </c>
+      <c r="CL12">
+        <v>9</v>
+      </c>
+      <c r="CM12">
+        <v>9</v>
+      </c>
+      <c r="CN12">
+        <v>4</v>
+      </c>
+      <c r="CO12">
+        <v>4</v>
+      </c>
+      <c r="CP12">
+        <v>4</v>
+      </c>
+      <c r="CQ12">
+        <v>4</v>
+      </c>
+      <c r="CR12">
+        <v>4</v>
+      </c>
+      <c r="CS12">
+        <v>4</v>
+      </c>
+      <c r="CT12">
+        <v>4</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>1</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>1</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>1</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>1</v>
+      </c>
+      <c r="DC12">
+        <v>1</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>1</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>1</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>1</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0.5</v>
+      </c>
+      <c r="DL12">
+        <v>1214</v>
+      </c>
+      <c r="DM12">
+        <v>1124</v>
+      </c>
+      <c r="DN12">
+        <v>1259</v>
+      </c>
+      <c r="DO12">
+        <v>516</v>
+      </c>
+      <c r="DP12">
+        <v>774</v>
+      </c>
+      <c r="DQ12">
+        <v>1083</v>
+      </c>
+      <c r="DR12">
+        <v>544</v>
+      </c>
+      <c r="DS12">
+        <v>853</v>
+      </c>
+      <c r="DT12">
+        <v>999</v>
+      </c>
+      <c r="DU12">
+        <v>843</v>
+      </c>
+      <c r="DV12">
+        <v>795</v>
+      </c>
+      <c r="DW12">
+        <v>1090</v>
+      </c>
+      <c r="DX12">
+        <v>5633</v>
+      </c>
+      <c r="DY12">
+        <v>482</v>
+      </c>
+      <c r="DZ12">
+        <v>810</v>
+      </c>
+      <c r="EA12">
+        <v>572</v>
+      </c>
+      <c r="EB12">
+        <v>133</v>
+      </c>
+      <c r="EC12">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/输出.xlsx
+++ b/输出.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,19 +535,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-01-13_19:59:34</t>
-  </si>
-  <si>
-    <t>2019-01-13_20:00:50</t>
-  </si>
-  <si>
-    <t>miao</t>
-  </si>
-  <si>
     <t>化学</t>
   </si>
   <si>
-    <t>ALTERNA-αJ</t>
+    <t>2019-01-14_00:41:59</t>
+  </si>
+  <si>
+    <t>2019-01-14_00:43:37</t>
+  </si>
+  <si>
+    <t>曹洪彬</t>
+  </si>
+  <si>
+    <t>ALTERNA-αG</t>
+  </si>
+  <si>
+    <t>GOVINO-δH</t>
+  </si>
+  <si>
+    <t>2019-01-14_00:51:34</t>
+  </si>
+  <si>
+    <t>2019-01-14_00:50:41</t>
+  </si>
+  <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>呜呜呜</t>
+  </si>
+  <si>
+    <t>brush_shampoo</t>
+  </si>
+  <si>
+    <t>ALTERNA-γJ</t>
+  </si>
+  <si>
+    <t>GOVINO-βH</t>
   </si>
 </sst>
 </file>
@@ -906,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EC12"/>
+  <dimension ref="A1:DW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DO1" workbookViewId="0">
-      <selection activeCell="DO12" sqref="DO12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,7 +959,7 @@
     <col min="72" max="72" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1342,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1607,452 +1634,3067 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="3" spans="1:133" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>140</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="M3">
+      <c r="U3">
+        <v>9</v>
+      </c>
+      <c r="V3">
+        <v>9</v>
+      </c>
+      <c r="W3">
+        <v>9</v>
+      </c>
+      <c r="X3">
+        <v>9</v>
+      </c>
+      <c r="Y3">
+        <v>9</v>
+      </c>
+      <c r="Z3">
+        <v>9</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <v>9</v>
+      </c>
+      <c r="AC3">
+        <v>9</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AG3">
+        <v>4</v>
+      </c>
+      <c r="AH3">
+        <v>4</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>4</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>0.5</v>
+      </c>
+      <c r="BB3">
+        <v>708</v>
+      </c>
+      <c r="BC3">
+        <v>640</v>
+      </c>
+      <c r="BD3">
+        <v>585</v>
+      </c>
+      <c r="BE3">
+        <v>685</v>
+      </c>
+      <c r="BF3">
+        <v>550</v>
+      </c>
+      <c r="BG3">
+        <v>1349</v>
+      </c>
+      <c r="BH3">
+        <v>2349</v>
+      </c>
+      <c r="BI3">
+        <v>596</v>
+      </c>
+      <c r="BJ3">
+        <v>550</v>
+      </c>
+      <c r="BK3">
+        <v>1934</v>
+      </c>
+      <c r="BL3">
+        <v>594</v>
+      </c>
+      <c r="BM3">
+        <v>774</v>
+      </c>
+      <c r="BN3">
+        <v>1033</v>
+      </c>
+      <c r="BO3">
+        <v>628</v>
+      </c>
+      <c r="BP3">
+        <v>2102</v>
+      </c>
+      <c r="BQ3">
+        <v>661</v>
+      </c>
+      <c r="BR3">
+        <v>4</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX3">
+        <v>18</v>
+      </c>
+      <c r="BY3">
+        <v>9</v>
+      </c>
+      <c r="BZ3">
+        <v>9</v>
+      </c>
+      <c r="CA3">
+        <v>9</v>
+      </c>
+      <c r="CB3">
+        <v>9</v>
+      </c>
+      <c r="CC3">
+        <v>9</v>
+      </c>
+      <c r="CD3">
+        <v>9</v>
+      </c>
+      <c r="CE3">
+        <v>7</v>
+      </c>
+      <c r="CF3">
+        <v>9</v>
+      </c>
+      <c r="CG3">
+        <v>9</v>
+      </c>
+      <c r="CH3">
+        <v>4</v>
+      </c>
+      <c r="CI3">
+        <v>4</v>
+      </c>
+      <c r="CJ3">
+        <v>4</v>
+      </c>
+      <c r="CK3">
+        <v>4</v>
+      </c>
+      <c r="CL3">
+        <v>4</v>
+      </c>
+      <c r="CM3">
+        <v>4</v>
+      </c>
+      <c r="CN3">
+        <v>4</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>1</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>1</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>1</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>1</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>1</v>
+      </c>
+      <c r="DE3">
+        <v>0.5</v>
+      </c>
+      <c r="DF3">
+        <v>235</v>
+      </c>
+      <c r="DG3">
+        <v>235</v>
+      </c>
+      <c r="DH3">
+        <v>201</v>
+      </c>
+      <c r="DI3">
+        <v>201</v>
+      </c>
+      <c r="DJ3">
+        <v>191</v>
+      </c>
+      <c r="DK3">
+        <v>1382</v>
+      </c>
+      <c r="DL3">
+        <v>191</v>
+      </c>
+      <c r="DM3">
+        <v>190</v>
+      </c>
+      <c r="DN3">
+        <v>506</v>
+      </c>
+      <c r="DO3">
+        <v>202</v>
+      </c>
+      <c r="DP3">
+        <v>202</v>
+      </c>
+      <c r="DQ3">
+        <v>134</v>
+      </c>
+      <c r="DR3">
+        <v>190</v>
+      </c>
+      <c r="DS3">
+        <v>179</v>
+      </c>
+      <c r="DT3">
+        <v>201</v>
+      </c>
+      <c r="DU3">
+        <v>213</v>
+      </c>
+      <c r="DV3">
+        <v>133</v>
+      </c>
+      <c r="DW3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:127" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T4">
         <v>2</v>
       </c>
+      <c r="U4">
+        <v>9</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>9</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>9</v>
+      </c>
+      <c r="Z4">
+        <v>9</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4">
+        <v>9</v>
+      </c>
+      <c r="AC4">
+        <v>9</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>4</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AI4">
+        <v>4</v>
+      </c>
+      <c r="AJ4">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>0.5</v>
+      </c>
+      <c r="BB4">
+        <v>708</v>
+      </c>
+      <c r="BC4">
+        <v>640</v>
+      </c>
+      <c r="BD4">
+        <v>585</v>
+      </c>
+      <c r="BE4">
+        <v>685</v>
+      </c>
+      <c r="BF4">
+        <v>550</v>
+      </c>
+      <c r="BG4">
+        <v>1349</v>
+      </c>
+      <c r="BH4">
+        <v>2349</v>
+      </c>
+      <c r="BI4">
+        <v>596</v>
+      </c>
+      <c r="BJ4">
+        <v>550</v>
+      </c>
+      <c r="BK4">
+        <v>1934</v>
+      </c>
+      <c r="BL4">
+        <v>594</v>
+      </c>
+      <c r="BM4">
+        <v>774</v>
+      </c>
+      <c r="BN4">
+        <v>1033</v>
+      </c>
+      <c r="BO4">
+        <v>628</v>
+      </c>
+      <c r="BP4">
+        <v>2102</v>
+      </c>
+      <c r="BQ4">
+        <v>661</v>
+      </c>
+      <c r="BR4">
+        <v>4</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX4">
+        <v>18</v>
+      </c>
+      <c r="BY4">
+        <v>9</v>
+      </c>
+      <c r="BZ4">
+        <v>9</v>
+      </c>
+      <c r="CA4">
+        <v>9</v>
+      </c>
+      <c r="CB4">
+        <v>9</v>
+      </c>
+      <c r="CC4">
+        <v>9</v>
+      </c>
+      <c r="CD4">
+        <v>9</v>
+      </c>
+      <c r="CE4">
+        <v>7</v>
+      </c>
+      <c r="CF4">
+        <v>9</v>
+      </c>
+      <c r="CG4">
+        <v>9</v>
+      </c>
+      <c r="CH4">
+        <v>4</v>
+      </c>
+      <c r="CI4">
+        <v>4</v>
+      </c>
+      <c r="CJ4">
+        <v>4</v>
+      </c>
+      <c r="CK4">
+        <v>4</v>
+      </c>
+      <c r="CL4">
+        <v>4</v>
+      </c>
+      <c r="CM4">
+        <v>4</v>
+      </c>
+      <c r="CN4">
+        <v>4</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>0.5</v>
+      </c>
+      <c r="DF4">
+        <v>235</v>
+      </c>
+      <c r="DG4">
+        <v>235</v>
+      </c>
+      <c r="DH4">
+        <v>201</v>
+      </c>
+      <c r="DI4">
+        <v>201</v>
+      </c>
+      <c r="DJ4">
+        <v>191</v>
+      </c>
+      <c r="DK4">
+        <v>1382</v>
+      </c>
+      <c r="DL4">
+        <v>191</v>
+      </c>
+      <c r="DM4">
+        <v>190</v>
+      </c>
+      <c r="DN4">
+        <v>506</v>
+      </c>
+      <c r="DO4">
+        <v>202</v>
+      </c>
+      <c r="DP4">
+        <v>202</v>
+      </c>
+      <c r="DQ4">
+        <v>134</v>
+      </c>
+      <c r="DR4">
+        <v>190</v>
+      </c>
+      <c r="DS4">
+        <v>179</v>
+      </c>
+      <c r="DT4">
+        <v>201</v>
+      </c>
+      <c r="DU4">
+        <v>213</v>
+      </c>
+      <c r="DV4">
+        <v>133</v>
+      </c>
+      <c r="DW4">
+        <v>111</v>
+      </c>
     </row>
-    <row r="4" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>140</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
+        <v>9</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>9</v>
+      </c>
+      <c r="Z5">
+        <v>9</v>
+      </c>
+      <c r="AA5">
+        <v>7</v>
+      </c>
+      <c r="AB5">
+        <v>9</v>
+      </c>
+      <c r="AC5">
+        <v>9</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>4</v>
+      </c>
+      <c r="AJ5">
+        <v>4</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0.5</v>
+      </c>
+      <c r="BB5">
+        <v>708</v>
+      </c>
+      <c r="BC5">
+        <v>640</v>
+      </c>
+      <c r="BD5">
+        <v>585</v>
+      </c>
+      <c r="BE5">
+        <v>685</v>
+      </c>
+      <c r="BF5">
+        <v>550</v>
+      </c>
+      <c r="BG5">
+        <v>1349</v>
+      </c>
+      <c r="BH5">
+        <v>2349</v>
+      </c>
+      <c r="BI5">
+        <v>596</v>
+      </c>
+      <c r="BJ5">
+        <v>550</v>
+      </c>
+      <c r="BK5">
+        <v>1934</v>
+      </c>
+      <c r="BL5">
+        <v>594</v>
+      </c>
+      <c r="BM5">
+        <v>774</v>
+      </c>
+      <c r="BN5">
+        <v>1033</v>
+      </c>
+      <c r="BO5">
+        <v>628</v>
+      </c>
+      <c r="BP5">
+        <v>2102</v>
+      </c>
+      <c r="BQ5">
+        <v>661</v>
+      </c>
+      <c r="BR5">
+        <v>4</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX5">
+        <v>18</v>
+      </c>
+      <c r="BY5">
+        <v>9</v>
+      </c>
+      <c r="BZ5">
+        <v>9</v>
+      </c>
+      <c r="CA5">
+        <v>9</v>
+      </c>
+      <c r="CB5">
+        <v>9</v>
+      </c>
+      <c r="CC5">
+        <v>9</v>
+      </c>
+      <c r="CD5">
+        <v>9</v>
+      </c>
+      <c r="CE5">
+        <v>7</v>
+      </c>
+      <c r="CF5">
+        <v>9</v>
+      </c>
+      <c r="CG5">
+        <v>9</v>
+      </c>
+      <c r="CH5">
+        <v>4</v>
+      </c>
+      <c r="CI5">
+        <v>4</v>
+      </c>
+      <c r="CJ5">
+        <v>4</v>
+      </c>
+      <c r="CK5">
+        <v>4</v>
+      </c>
+      <c r="CL5">
+        <v>4</v>
+      </c>
+      <c r="CM5">
+        <v>4</v>
+      </c>
+      <c r="CN5">
+        <v>4</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>0.5</v>
+      </c>
+      <c r="DF5">
+        <v>235</v>
+      </c>
+      <c r="DG5">
+        <v>235</v>
+      </c>
+      <c r="DH5">
+        <v>201</v>
+      </c>
+      <c r="DI5">
+        <v>201</v>
+      </c>
+      <c r="DJ5">
+        <v>191</v>
+      </c>
+      <c r="DK5">
+        <v>1382</v>
+      </c>
+      <c r="DL5">
+        <v>191</v>
+      </c>
+      <c r="DM5">
+        <v>190</v>
+      </c>
+      <c r="DN5">
+        <v>506</v>
+      </c>
+      <c r="DO5">
+        <v>202</v>
+      </c>
+      <c r="DP5">
+        <v>202</v>
+      </c>
+      <c r="DQ5">
+        <v>134</v>
+      </c>
+      <c r="DR5">
+        <v>190</v>
+      </c>
+      <c r="DS5">
+        <v>179</v>
+      </c>
+      <c r="DT5">
+        <v>201</v>
+      </c>
+      <c r="DU5">
+        <v>213</v>
+      </c>
+      <c r="DV5">
+        <v>133</v>
+      </c>
+      <c r="DW5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:127" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>140</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>9</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <v>9</v>
+      </c>
+      <c r="X7">
+        <v>9</v>
+      </c>
+      <c r="Y7">
+        <v>9</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <v>7</v>
+      </c>
+      <c r="AB7">
+        <v>9</v>
+      </c>
+      <c r="AC7">
+        <v>9</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+      <c r="AG7">
+        <v>4</v>
+      </c>
+      <c r="AH7">
+        <v>4</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>4</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0.5</v>
+      </c>
+      <c r="BB7">
+        <v>708</v>
+      </c>
+      <c r="BC7">
+        <v>640</v>
+      </c>
+      <c r="BD7">
+        <v>585</v>
+      </c>
+      <c r="BE7">
+        <v>685</v>
+      </c>
+      <c r="BF7">
+        <v>550</v>
+      </c>
+      <c r="BG7">
+        <v>1349</v>
+      </c>
+      <c r="BH7">
+        <v>2349</v>
+      </c>
+      <c r="BI7">
+        <v>596</v>
+      </c>
+      <c r="BJ7">
+        <v>550</v>
+      </c>
+      <c r="BK7">
+        <v>1934</v>
+      </c>
+      <c r="BL7">
+        <v>594</v>
+      </c>
+      <c r="BM7">
+        <v>774</v>
+      </c>
+      <c r="BN7">
+        <v>1033</v>
+      </c>
+      <c r="BO7">
+        <v>628</v>
+      </c>
+      <c r="BP7">
+        <v>2102</v>
+      </c>
+      <c r="BQ7">
+        <v>661</v>
+      </c>
+      <c r="BR7">
+        <v>4</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX7">
+        <v>18</v>
+      </c>
+      <c r="BY7">
+        <v>9</v>
+      </c>
+      <c r="BZ7">
+        <v>9</v>
+      </c>
+      <c r="CA7">
+        <v>9</v>
+      </c>
+      <c r="CB7">
+        <v>9</v>
+      </c>
+      <c r="CC7">
+        <v>9</v>
+      </c>
+      <c r="CD7">
+        <v>9</v>
+      </c>
+      <c r="CE7">
+        <v>7</v>
+      </c>
+      <c r="CF7">
+        <v>9</v>
+      </c>
+      <c r="CG7">
+        <v>9</v>
+      </c>
+      <c r="CH7">
+        <v>4</v>
+      </c>
+      <c r="CI7">
+        <v>4</v>
+      </c>
+      <c r="CJ7">
+        <v>4</v>
+      </c>
+      <c r="CK7">
+        <v>4</v>
+      </c>
+      <c r="CL7">
+        <v>4</v>
+      </c>
+      <c r="CM7">
+        <v>4</v>
+      </c>
+      <c r="CN7">
+        <v>4</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>1</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>1</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>1</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>1</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>1</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>1</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>1</v>
+      </c>
+      <c r="DE7">
+        <v>0.5</v>
+      </c>
+      <c r="DF7">
+        <v>235</v>
+      </c>
+      <c r="DG7">
+        <v>235</v>
+      </c>
+      <c r="DH7">
+        <v>201</v>
+      </c>
+      <c r="DI7">
+        <v>201</v>
+      </c>
+      <c r="DJ7">
+        <v>191</v>
+      </c>
+      <c r="DK7">
+        <v>1382</v>
+      </c>
+      <c r="DL7">
+        <v>191</v>
+      </c>
+      <c r="DM7">
+        <v>190</v>
+      </c>
+      <c r="DN7">
+        <v>506</v>
+      </c>
+      <c r="DO7">
+        <v>202</v>
+      </c>
+      <c r="DP7">
+        <v>202</v>
+      </c>
+      <c r="DQ7">
+        <v>134</v>
+      </c>
+      <c r="DR7">
+        <v>190</v>
+      </c>
+      <c r="DS7">
+        <v>179</v>
+      </c>
+      <c r="DT7">
+        <v>201</v>
+      </c>
+      <c r="DU7">
+        <v>213</v>
+      </c>
+      <c r="DV7">
+        <v>133</v>
+      </c>
+      <c r="DW7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:127" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>140</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>9</v>
+      </c>
+      <c r="W8">
+        <v>9</v>
+      </c>
+      <c r="X8">
+        <v>9</v>
+      </c>
+      <c r="Y8">
+        <v>9</v>
+      </c>
+      <c r="Z8">
+        <v>9</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>9</v>
+      </c>
+      <c r="AC8">
+        <v>9</v>
+      </c>
+      <c r="AD8">
+        <v>4</v>
+      </c>
+      <c r="AE8">
+        <v>4</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+      <c r="AJ8">
+        <v>4</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>0.5</v>
+      </c>
+      <c r="BB8">
+        <v>708</v>
+      </c>
+      <c r="BC8">
+        <v>640</v>
+      </c>
+      <c r="BD8">
+        <v>585</v>
+      </c>
+      <c r="BE8">
+        <v>685</v>
+      </c>
+      <c r="BF8">
+        <v>550</v>
+      </c>
+      <c r="BG8">
+        <v>1349</v>
+      </c>
+      <c r="BH8">
+        <v>2349</v>
+      </c>
+      <c r="BI8">
+        <v>596</v>
+      </c>
+      <c r="BJ8">
+        <v>550</v>
+      </c>
+      <c r="BK8">
+        <v>1934</v>
+      </c>
+      <c r="BL8">
+        <v>594</v>
+      </c>
+      <c r="BM8">
+        <v>774</v>
+      </c>
+      <c r="BN8">
+        <v>1033</v>
+      </c>
+      <c r="BO8">
+        <v>628</v>
+      </c>
+      <c r="BP8">
+        <v>2102</v>
+      </c>
+      <c r="BQ8">
+        <v>661</v>
+      </c>
+      <c r="BR8">
+        <v>4</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX8">
+        <v>18</v>
+      </c>
+      <c r="BY8">
+        <v>9</v>
+      </c>
+      <c r="BZ8">
+        <v>9</v>
+      </c>
+      <c r="CA8">
+        <v>9</v>
+      </c>
+      <c r="CB8">
+        <v>9</v>
+      </c>
+      <c r="CC8">
+        <v>9</v>
+      </c>
+      <c r="CD8">
+        <v>9</v>
+      </c>
+      <c r="CE8">
+        <v>7</v>
+      </c>
+      <c r="CF8">
+        <v>9</v>
+      </c>
+      <c r="CG8">
+        <v>9</v>
+      </c>
+      <c r="CH8">
+        <v>4</v>
+      </c>
+      <c r="CI8">
+        <v>4</v>
+      </c>
+      <c r="CJ8">
+        <v>4</v>
+      </c>
+      <c r="CK8">
+        <v>4</v>
+      </c>
+      <c r="CL8">
+        <v>4</v>
+      </c>
+      <c r="CM8">
+        <v>4</v>
+      </c>
+      <c r="CN8">
+        <v>4</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>1</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>1</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>1</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>1</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>1</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>1</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>1</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>1</v>
+      </c>
+      <c r="DE8">
+        <v>0.5</v>
+      </c>
+      <c r="DF8">
+        <v>235</v>
+      </c>
+      <c r="DG8">
+        <v>235</v>
+      </c>
+      <c r="DH8">
+        <v>201</v>
+      </c>
+      <c r="DI8">
+        <v>201</v>
+      </c>
+      <c r="DJ8">
+        <v>191</v>
+      </c>
+      <c r="DK8">
+        <v>1382</v>
+      </c>
+      <c r="DL8">
+        <v>191</v>
+      </c>
+      <c r="DM8">
+        <v>190</v>
+      </c>
+      <c r="DN8">
+        <v>506</v>
+      </c>
+      <c r="DO8">
+        <v>202</v>
+      </c>
+      <c r="DP8">
+        <v>202</v>
+      </c>
+      <c r="DQ8">
+        <v>134</v>
+      </c>
+      <c r="DR8">
+        <v>190</v>
+      </c>
+      <c r="DS8">
+        <v>179</v>
+      </c>
+      <c r="DT8">
+        <v>201</v>
+      </c>
+      <c r="DU8">
+        <v>213</v>
+      </c>
+      <c r="DV8">
+        <v>133</v>
+      </c>
+      <c r="DW8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:127" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>140</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>9</v>
+      </c>
+      <c r="V9">
+        <v>9</v>
+      </c>
+      <c r="W9">
+        <v>9</v>
+      </c>
+      <c r="X9">
+        <v>9</v>
+      </c>
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <v>9</v>
+      </c>
+      <c r="AA9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <v>9</v>
+      </c>
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AH9">
+        <v>4</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
+        <v>4</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>0.5</v>
+      </c>
+      <c r="BB9">
+        <v>708</v>
+      </c>
+      <c r="BC9">
+        <v>640</v>
+      </c>
+      <c r="BD9">
+        <v>585</v>
+      </c>
+      <c r="BE9">
+        <v>685</v>
+      </c>
+      <c r="BF9">
+        <v>550</v>
+      </c>
+      <c r="BG9">
+        <v>1349</v>
+      </c>
+      <c r="BH9">
+        <v>2349</v>
+      </c>
+      <c r="BI9">
+        <v>596</v>
+      </c>
+      <c r="BJ9">
+        <v>550</v>
+      </c>
+      <c r="BK9">
+        <v>1934</v>
+      </c>
+      <c r="BL9">
+        <v>594</v>
+      </c>
+      <c r="BM9">
+        <v>774</v>
+      </c>
+      <c r="BN9">
+        <v>1033</v>
+      </c>
+      <c r="BO9">
+        <v>628</v>
+      </c>
+      <c r="BP9">
+        <v>2102</v>
+      </c>
+      <c r="BQ9">
+        <v>661</v>
+      </c>
+      <c r="BR9">
+        <v>4</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX9">
+        <v>18</v>
+      </c>
+      <c r="BY9">
+        <v>9</v>
+      </c>
+      <c r="BZ9">
+        <v>9</v>
+      </c>
+      <c r="CA9">
+        <v>9</v>
+      </c>
+      <c r="CB9">
+        <v>9</v>
+      </c>
+      <c r="CC9">
+        <v>9</v>
+      </c>
+      <c r="CD9">
+        <v>9</v>
+      </c>
+      <c r="CE9">
+        <v>7</v>
+      </c>
+      <c r="CF9">
+        <v>9</v>
+      </c>
+      <c r="CG9">
+        <v>9</v>
+      </c>
+      <c r="CH9">
+        <v>4</v>
+      </c>
+      <c r="CI9">
+        <v>4</v>
+      </c>
+      <c r="CJ9">
+        <v>4</v>
+      </c>
+      <c r="CK9">
+        <v>4</v>
+      </c>
+      <c r="CL9">
+        <v>4</v>
+      </c>
+      <c r="CM9">
+        <v>4</v>
+      </c>
+      <c r="CN9">
+        <v>4</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>1</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>1</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>1</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>1</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>1</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>1</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>1</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>1</v>
+      </c>
+      <c r="DE9">
+        <v>0.5</v>
+      </c>
+      <c r="DF9">
+        <v>235</v>
+      </c>
+      <c r="DG9">
+        <v>235</v>
+      </c>
+      <c r="DH9">
+        <v>201</v>
+      </c>
+      <c r="DI9">
+        <v>201</v>
+      </c>
+      <c r="DJ9">
+        <v>191</v>
+      </c>
+      <c r="DK9">
+        <v>1382</v>
+      </c>
+      <c r="DL9">
+        <v>191</v>
+      </c>
+      <c r="DM9">
+        <v>190</v>
+      </c>
+      <c r="DN9">
+        <v>506</v>
+      </c>
+      <c r="DO9">
+        <v>202</v>
+      </c>
+      <c r="DP9">
+        <v>202</v>
+      </c>
+      <c r="DQ9">
+        <v>134</v>
+      </c>
+      <c r="DR9">
+        <v>190</v>
+      </c>
+      <c r="DS9">
+        <v>179</v>
+      </c>
+      <c r="DT9">
+        <v>201</v>
+      </c>
+      <c r="DU9">
+        <v>213</v>
+      </c>
+      <c r="DV9">
+        <v>133</v>
+      </c>
+      <c r="DW9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:127" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>148</v>
+      </c>
+      <c r="T10">
+        <v>14</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AB10">
+        <v>9</v>
+      </c>
+      <c r="AC10">
+        <v>9</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>4</v>
+      </c>
+      <c r="AF10">
+        <v>4</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+      <c r="AH10">
+        <v>4</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
+      </c>
+      <c r="AJ10">
+        <v>4</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>0.5</v>
+      </c>
+      <c r="BB10">
+        <v>178</v>
+      </c>
+      <c r="BC10">
+        <v>191</v>
+      </c>
+      <c r="BD10">
+        <v>201</v>
+      </c>
+      <c r="BE10">
+        <v>269</v>
+      </c>
+      <c r="BF10">
+        <v>190</v>
+      </c>
+      <c r="BG10">
+        <v>190</v>
+      </c>
+      <c r="BH10">
+        <v>200</v>
+      </c>
+      <c r="BI10">
+        <v>202</v>
+      </c>
+      <c r="BJ10">
+        <v>156</v>
+      </c>
+      <c r="BK10">
+        <v>191</v>
+      </c>
+      <c r="BL10">
+        <v>189</v>
+      </c>
+      <c r="BM10">
+        <v>179</v>
+      </c>
+      <c r="BN10">
+        <v>177</v>
+      </c>
+      <c r="BO10">
+        <v>1067</v>
+      </c>
+      <c r="BP10">
+        <v>190</v>
+      </c>
+      <c r="BQ10">
+        <v>191</v>
+      </c>
+      <c r="BR10">
+        <v>4</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX10">
+        <v>8</v>
+      </c>
+      <c r="BY10">
+        <v>9</v>
+      </c>
+      <c r="BZ10">
+        <v>9</v>
+      </c>
+      <c r="CA10">
+        <v>9</v>
+      </c>
+      <c r="CB10">
+        <v>9</v>
+      </c>
+      <c r="CC10">
+        <v>1</v>
+      </c>
+      <c r="CD10">
+        <v>1</v>
+      </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>1</v>
+      </c>
+      <c r="CG10">
+        <v>5</v>
+      </c>
+      <c r="CH10">
         <v>3</v>
       </c>
+      <c r="CI10">
+        <v>3</v>
+      </c>
+      <c r="CJ10">
+        <v>3</v>
+      </c>
+      <c r="CK10">
+        <v>3</v>
+      </c>
+      <c r="CL10">
+        <v>3</v>
+      </c>
+      <c r="CM10">
+        <v>3</v>
+      </c>
+      <c r="CN10">
+        <v>3</v>
+      </c>
+      <c r="CO10">
+        <v>1</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>1</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>1</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>1</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>1</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>1</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>1</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>1</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0.5</v>
+      </c>
+      <c r="DF10">
+        <v>200</v>
+      </c>
+      <c r="DG10">
+        <v>213</v>
+      </c>
+      <c r="DH10">
+        <v>201</v>
+      </c>
+      <c r="DI10">
+        <v>234</v>
+      </c>
+      <c r="DJ10">
+        <v>213</v>
+      </c>
+      <c r="DK10">
+        <v>212</v>
+      </c>
+      <c r="DL10">
+        <v>224</v>
+      </c>
+      <c r="DM10">
+        <v>189</v>
+      </c>
+      <c r="DN10">
+        <v>191</v>
+      </c>
+      <c r="DO10">
+        <v>212</v>
+      </c>
+      <c r="DP10">
+        <v>372</v>
+      </c>
+      <c r="DQ10">
+        <v>201</v>
+      </c>
+      <c r="DR10">
+        <v>3261</v>
+      </c>
+      <c r="DS10">
+        <v>191</v>
+      </c>
+      <c r="DT10">
+        <v>370</v>
+      </c>
+      <c r="DU10">
+        <v>192</v>
+      </c>
+      <c r="DV10">
+        <v>111111</v>
+      </c>
+      <c r="DW10">
+        <v>111</v>
+      </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>148</v>
+      </c>
+      <c r="T11">
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Y11">
+        <v>9</v>
+      </c>
+      <c r="Z11">
+        <v>9</v>
+      </c>
+      <c r="AA11">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="AB11">
+        <v>9</v>
+      </c>
+      <c r="AC11">
+        <v>9</v>
+      </c>
+      <c r="AD11">
+        <v>4</v>
+      </c>
+      <c r="AE11">
+        <v>4</v>
+      </c>
+      <c r="AF11">
+        <v>4</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <v>4</v>
+      </c>
+      <c r="AI11">
+        <v>4</v>
+      </c>
+      <c r="AJ11">
+        <v>4</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0.5</v>
+      </c>
+      <c r="BB11">
+        <v>178</v>
+      </c>
+      <c r="BC11">
+        <v>191</v>
+      </c>
+      <c r="BD11">
+        <v>201</v>
+      </c>
+      <c r="BE11">
+        <v>269</v>
+      </c>
+      <c r="BF11">
+        <v>190</v>
+      </c>
+      <c r="BG11">
+        <v>190</v>
+      </c>
+      <c r="BH11">
+        <v>200</v>
+      </c>
+      <c r="BI11">
+        <v>202</v>
+      </c>
+      <c r="BJ11">
+        <v>156</v>
+      </c>
+      <c r="BK11">
+        <v>191</v>
+      </c>
+      <c r="BL11">
+        <v>189</v>
+      </c>
+      <c r="BM11">
+        <v>179</v>
+      </c>
+      <c r="BN11">
+        <v>177</v>
+      </c>
+      <c r="BO11">
+        <v>1067</v>
+      </c>
+      <c r="BP11">
+        <v>190</v>
+      </c>
+      <c r="BQ11">
+        <v>191</v>
+      </c>
+      <c r="BR11">
+        <v>4</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX11">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="BY11">
+        <v>9</v>
+      </c>
+      <c r="BZ11">
+        <v>9</v>
+      </c>
+      <c r="CA11">
+        <v>9</v>
+      </c>
+      <c r="CB11">
+        <v>9</v>
+      </c>
+      <c r="CC11">
+        <v>1</v>
+      </c>
+      <c r="CD11">
+        <v>1</v>
+      </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
+        <v>1</v>
+      </c>
+      <c r="CG11">
         <v>5</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>140</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12">
-        <v>9</v>
-      </c>
-      <c r="V12">
-        <v>9</v>
-      </c>
-      <c r="W12">
-        <v>9</v>
-      </c>
-      <c r="X12">
-        <v>9</v>
-      </c>
-      <c r="Y12">
-        <v>9</v>
-      </c>
-      <c r="Z12">
-        <v>9</v>
-      </c>
-      <c r="AA12">
-        <v>9</v>
-      </c>
-      <c r="AB12">
-        <v>7</v>
-      </c>
-      <c r="AC12">
-        <v>9</v>
-      </c>
-      <c r="AD12">
-        <v>9</v>
-      </c>
-      <c r="AE12">
-        <v>4</v>
-      </c>
-      <c r="AF12">
-        <v>4</v>
-      </c>
-      <c r="AG12">
-        <v>4</v>
-      </c>
-      <c r="AH12">
-        <v>4</v>
-      </c>
-      <c r="AI12">
-        <v>4</v>
-      </c>
-      <c r="AJ12">
-        <v>4</v>
-      </c>
-      <c r="AK12">
-        <v>4</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>1</v>
-      </c>
-      <c r="AN12">
-        <v>1</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>1</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
-      </c>
-      <c r="AU12">
-        <v>1</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>1</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>1</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
+      <c r="CH11">
+        <v>3</v>
+      </c>
+      <c r="CI11">
+        <v>3</v>
+      </c>
+      <c r="CJ11">
+        <v>3</v>
+      </c>
+      <c r="CK11">
+        <v>3</v>
+      </c>
+      <c r="CL11">
+        <v>3</v>
+      </c>
+      <c r="CM11">
+        <v>3</v>
+      </c>
+      <c r="CN11">
+        <v>3</v>
+      </c>
+      <c r="CO11">
+        <v>1</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>1</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>1</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>1</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>1</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>1</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>1</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
         <v>0.5</v>
       </c>
-      <c r="BE12">
-        <v>662</v>
-      </c>
-      <c r="BF12">
-        <v>1192</v>
-      </c>
-      <c r="BG12">
-        <v>718</v>
-      </c>
-      <c r="BH12">
-        <v>471</v>
-      </c>
-      <c r="BI12">
-        <v>5083</v>
-      </c>
-      <c r="BJ12">
-        <v>1201</v>
-      </c>
-      <c r="BK12">
-        <v>4206</v>
-      </c>
-      <c r="BL12">
-        <v>684</v>
-      </c>
-      <c r="BM12">
-        <v>336</v>
-      </c>
-      <c r="BN12">
-        <v>1021</v>
-      </c>
-      <c r="BO12">
-        <v>404</v>
-      </c>
-      <c r="BP12">
-        <v>976</v>
-      </c>
-      <c r="BQ12">
-        <v>831</v>
-      </c>
-      <c r="BR12">
-        <v>729</v>
-      </c>
-      <c r="BS12">
-        <v>729</v>
-      </c>
-      <c r="BT12">
+      <c r="DF11">
+        <v>200</v>
+      </c>
+      <c r="DG11">
+        <v>213</v>
+      </c>
+      <c r="DH11">
+        <v>201</v>
+      </c>
+      <c r="DI11">
+        <v>234</v>
+      </c>
+      <c r="DJ11">
+        <v>213</v>
+      </c>
+      <c r="DK11">
+        <v>212</v>
+      </c>
+      <c r="DL11">
+        <v>224</v>
+      </c>
+      <c r="DM11">
+        <v>189</v>
+      </c>
+      <c r="DN11">
+        <v>191</v>
+      </c>
+      <c r="DO11">
+        <v>212</v>
+      </c>
+      <c r="DP11">
+        <v>372</v>
+      </c>
+      <c r="DQ11">
+        <v>201</v>
+      </c>
+      <c r="DR11">
+        <v>3261</v>
+      </c>
+      <c r="DS11">
+        <v>191</v>
+      </c>
+      <c r="DT11">
         <v>370</v>
       </c>
-      <c r="BU12">
-        <v>359</v>
-      </c>
-      <c r="BV12">
-        <v>729</v>
-      </c>
-      <c r="BW12">
-        <v>4</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
-        <v>0</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CA12">
-        <v>1</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>131</v>
-      </c>
-      <c r="CC12">
-        <v>16</v>
-      </c>
-      <c r="CD12">
-        <v>9</v>
-      </c>
-      <c r="CE12">
-        <v>9</v>
-      </c>
-      <c r="CF12">
-        <v>9</v>
-      </c>
-      <c r="CG12">
-        <v>9</v>
-      </c>
-      <c r="CH12">
-        <v>9</v>
-      </c>
-      <c r="CI12">
-        <v>9</v>
-      </c>
-      <c r="CJ12">
-        <v>9</v>
-      </c>
-      <c r="CK12">
-        <v>7</v>
-      </c>
-      <c r="CL12">
-        <v>9</v>
-      </c>
-      <c r="CM12">
-        <v>9</v>
-      </c>
-      <c r="CN12">
-        <v>4</v>
-      </c>
-      <c r="CO12">
-        <v>4</v>
-      </c>
-      <c r="CP12">
-        <v>4</v>
-      </c>
-      <c r="CQ12">
-        <v>4</v>
-      </c>
-      <c r="CR12">
-        <v>4</v>
-      </c>
-      <c r="CS12">
-        <v>4</v>
-      </c>
-      <c r="CT12">
-        <v>4</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>1</v>
-      </c>
-      <c r="CW12">
-        <v>0</v>
-      </c>
-      <c r="CX12">
-        <v>1</v>
-      </c>
-      <c r="CY12">
-        <v>0</v>
-      </c>
-      <c r="CZ12">
-        <v>1</v>
-      </c>
-      <c r="DA12">
-        <v>0</v>
-      </c>
-      <c r="DB12">
-        <v>1</v>
-      </c>
-      <c r="DC12">
-        <v>1</v>
-      </c>
-      <c r="DD12">
-        <v>0</v>
-      </c>
-      <c r="DE12">
-        <v>1</v>
-      </c>
-      <c r="DF12">
-        <v>0</v>
-      </c>
-      <c r="DG12">
-        <v>1</v>
-      </c>
-      <c r="DH12">
-        <v>0</v>
-      </c>
-      <c r="DI12">
-        <v>1</v>
-      </c>
-      <c r="DJ12">
-        <v>0</v>
-      </c>
-      <c r="DK12">
-        <v>0.5</v>
-      </c>
-      <c r="DL12">
-        <v>1214</v>
-      </c>
-      <c r="DM12">
-        <v>1124</v>
-      </c>
-      <c r="DN12">
-        <v>1259</v>
-      </c>
-      <c r="DO12">
-        <v>516</v>
-      </c>
-      <c r="DP12">
-        <v>774</v>
-      </c>
-      <c r="DQ12">
-        <v>1083</v>
-      </c>
-      <c r="DR12">
-        <v>544</v>
-      </c>
-      <c r="DS12">
-        <v>853</v>
-      </c>
-      <c r="DT12">
-        <v>999</v>
-      </c>
-      <c r="DU12">
-        <v>843</v>
-      </c>
-      <c r="DV12">
-        <v>795</v>
-      </c>
-      <c r="DW12">
-        <v>1090</v>
-      </c>
-      <c r="DX12">
-        <v>5633</v>
-      </c>
-      <c r="DY12">
-        <v>482</v>
-      </c>
-      <c r="DZ12">
-        <v>810</v>
-      </c>
-      <c r="EA12">
-        <v>572</v>
-      </c>
-      <c r="EB12">
-        <v>133</v>
-      </c>
-      <c r="EC12">
+      <c r="DU11">
+        <v>192</v>
+      </c>
+      <c r="DV11">
+        <v>111111</v>
+      </c>
+      <c r="DW11">
         <v>111</v>
       </c>
     </row>

--- a/输出.xlsx
+++ b/输出.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="227">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,6 +785,27 @@
   </si>
   <si>
     <t>调查消费者对商品的喜好</t>
+  </si>
+  <si>
+    <t>2019-01-14_19:14:35</t>
+  </si>
+  <si>
+    <t>2019-01-14_19:19:44</t>
+  </si>
+  <si>
+    <t>肖欣梅</t>
+  </si>
+  <si>
+    <t>药学</t>
+  </si>
+  <si>
+    <t>ALTERNA-αJ</t>
+  </si>
+  <si>
+    <t>GOVINO-γJ</t>
+  </si>
+  <si>
+    <t>了解消费者对于商品的偏好，分析消费者心理</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DW17"/>
+  <dimension ref="A1:DW18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CY1" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="CG16" sqref="CG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7673,6 +7694,389 @@
         <v>219</v>
       </c>
     </row>
+    <row r="18" spans="1:127" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>50</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>224</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+      <c r="U18">
+        <v>9</v>
+      </c>
+      <c r="V18">
+        <v>8</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>7</v>
+      </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+      <c r="AA18">
+        <v>6</v>
+      </c>
+      <c r="AB18">
+        <v>8</v>
+      </c>
+      <c r="AC18">
+        <v>7</v>
+      </c>
+      <c r="AD18">
+        <v>3</v>
+      </c>
+      <c r="AE18">
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <v>4</v>
+      </c>
+      <c r="AG18">
+        <v>4</v>
+      </c>
+      <c r="AH18">
+        <v>3</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="BB18">
+        <v>2855</v>
+      </c>
+      <c r="BC18">
+        <v>4341</v>
+      </c>
+      <c r="BD18">
+        <v>1574</v>
+      </c>
+      <c r="BE18">
+        <v>1698</v>
+      </c>
+      <c r="BF18">
+        <v>1507</v>
+      </c>
+      <c r="BG18">
+        <v>2260</v>
+      </c>
+      <c r="BH18">
+        <v>1597</v>
+      </c>
+      <c r="BI18">
+        <v>1505</v>
+      </c>
+      <c r="BJ18">
+        <v>1911</v>
+      </c>
+      <c r="BK18">
+        <v>6783</v>
+      </c>
+      <c r="BL18">
+        <v>3002</v>
+      </c>
+      <c r="BM18">
+        <v>1562</v>
+      </c>
+      <c r="BN18">
+        <v>1316</v>
+      </c>
+      <c r="BO18">
+        <v>4351</v>
+      </c>
+      <c r="BP18">
+        <v>1979</v>
+      </c>
+      <c r="BQ18">
+        <v>1371</v>
+      </c>
+      <c r="BR18">
+        <v>41</v>
+      </c>
+      <c r="BS18">
+        <v>1</v>
+      </c>
+      <c r="BT18">
+        <v>0.2</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0.2</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX18">
+        <v>14</v>
+      </c>
+      <c r="BY18">
+        <v>7</v>
+      </c>
+      <c r="BZ18">
+        <v>8</v>
+      </c>
+      <c r="CA18">
+        <v>7</v>
+      </c>
+      <c r="CB18">
+        <v>3</v>
+      </c>
+      <c r="CC18">
+        <v>4</v>
+      </c>
+      <c r="CD18">
+        <v>2</v>
+      </c>
+      <c r="CE18">
+        <v>7</v>
+      </c>
+      <c r="CF18">
+        <v>8</v>
+      </c>
+      <c r="CG18">
+        <v>8</v>
+      </c>
+      <c r="CH18">
+        <v>4</v>
+      </c>
+      <c r="CI18">
+        <v>4</v>
+      </c>
+      <c r="CJ18">
+        <v>4</v>
+      </c>
+      <c r="CK18">
+        <v>4</v>
+      </c>
+      <c r="CL18">
+        <v>4</v>
+      </c>
+      <c r="CM18">
+        <v>1</v>
+      </c>
+      <c r="CN18">
+        <v>1</v>
+      </c>
+      <c r="CO18">
+        <v>1</v>
+      </c>
+      <c r="CP18">
+        <v>1</v>
+      </c>
+      <c r="CQ18">
+        <v>1</v>
+      </c>
+      <c r="CR18">
+        <v>1</v>
+      </c>
+      <c r="CS18">
+        <v>1</v>
+      </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
+      <c r="CU18">
+        <v>1</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>1</v>
+      </c>
+      <c r="CZ18">
+        <v>1</v>
+      </c>
+      <c r="DA18">
+        <v>1</v>
+      </c>
+      <c r="DB18">
+        <v>1</v>
+      </c>
+      <c r="DC18">
+        <v>1</v>
+      </c>
+      <c r="DD18">
+        <v>1</v>
+      </c>
+      <c r="DE18" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="DF18">
+        <v>2181</v>
+      </c>
+      <c r="DG18">
+        <v>2823</v>
+      </c>
+      <c r="DH18">
+        <v>2305</v>
+      </c>
+      <c r="DI18">
+        <v>1922</v>
+      </c>
+      <c r="DJ18">
+        <v>1900</v>
+      </c>
+      <c r="DK18">
+        <v>1494</v>
+      </c>
+      <c r="DL18">
+        <v>1202</v>
+      </c>
+      <c r="DM18">
+        <v>1663</v>
+      </c>
+      <c r="DN18">
+        <v>2733</v>
+      </c>
+      <c r="DO18">
+        <v>2824</v>
+      </c>
+      <c r="DP18">
+        <v>1157</v>
+      </c>
+      <c r="DQ18">
+        <v>2057</v>
+      </c>
+      <c r="DR18">
+        <v>2282</v>
+      </c>
+      <c r="DS18">
+        <v>1439</v>
+      </c>
+      <c r="DT18">
+        <v>1068</v>
+      </c>
+      <c r="DU18">
+        <v>2316</v>
+      </c>
+      <c r="DV18">
+        <v>15013042007</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:DW6">
     <sortState ref="A2:DW7">
